--- a/한자의지혜_문제.xlsx
+++ b/한자의지혜_문제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD47BCA4-1739-4E88-93E5-4FEA31E79640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A016C0-A28A-4DD4-8246-097D5D22E971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="8295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="1450">
   <si>
     <t>해 세</t>
   </si>
@@ -4225,6 +4225,196 @@
   </si>
   <si>
     <t>복습36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도야</t>
+  </si>
+  <si>
+    <t>陶冶</t>
+  </si>
+  <si>
+    <t>면직</t>
+  </si>
+  <si>
+    <t>免職</t>
+  </si>
+  <si>
+    <t>상식</t>
+  </si>
+  <si>
+    <t>常識</t>
+  </si>
+  <si>
+    <t>과시</t>
+  </si>
+  <si>
+    <t>誇示</t>
+  </si>
+  <si>
+    <t>구두점</t>
+  </si>
+  <si>
+    <t>句讀點</t>
+  </si>
+  <si>
+    <t>매매</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>매각</t>
+  </si>
+  <si>
+    <t>賣却</t>
+  </si>
+  <si>
+    <t>박학</t>
+  </si>
+  <si>
+    <t>博學</t>
+  </si>
+  <si>
+    <t>경박</t>
+  </si>
+  <si>
+    <t>輕薄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">백안시 </t>
+  </si>
+  <si>
+    <t>白眼視</t>
+  </si>
+  <si>
+    <t>도외시</t>
+  </si>
+  <si>
+    <t>度外視</t>
+  </si>
+  <si>
+    <t>알현</t>
+  </si>
+  <si>
+    <t>謁見</t>
+  </si>
+  <si>
+    <t>역사</t>
+  </si>
+  <si>
+    <t>歷史</t>
+  </si>
+  <si>
+    <t>오한</t>
+  </si>
+  <si>
+    <t>惡寒</t>
+  </si>
+  <si>
+    <t>민족</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>전반</t>
+  </si>
+  <si>
+    <t>全般</t>
+  </si>
+  <si>
+    <t>거부</t>
+  </si>
+  <si>
+    <t>拒否</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>수익</t>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>악화</t>
+  </si>
+  <si>
+    <t>惡化</t>
+  </si>
+  <si>
+    <t>오열</t>
+  </si>
+  <si>
+    <t>嗚咽</t>
+  </si>
+  <si>
+    <t>인후</t>
+  </si>
+  <si>
+    <t>咽喉</t>
+  </si>
+  <si>
+    <t>유추</t>
+  </si>
+  <si>
+    <t>類推</t>
+  </si>
+  <si>
+    <t>유형</t>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인상 </t>
+  </si>
+  <si>
+    <t>일절</t>
+  </si>
+  <si>
+    <t>一切</t>
+  </si>
+  <si>
+    <t>일체</t>
+  </si>
+  <si>
+    <t>전진</t>
+  </si>
+  <si>
+    <t>前進</t>
+  </si>
+  <si>
+    <t>처벌</t>
+  </si>
+  <si>
+    <t>處罰</t>
+  </si>
+  <si>
+    <t>차용</t>
+  </si>
+  <si>
+    <t>借用</t>
+  </si>
+  <si>
+    <t>체계</t>
+  </si>
+  <si>
+    <t>體系</t>
+  </si>
+  <si>
+    <t>참여</t>
+  </si>
+  <si>
+    <t>參與</t>
+  </si>
+  <si>
+    <t>복습37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4555,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C716"/>
+  <dimension ref="A1:C762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678:C716"/>
+    <sheetView tabSelected="1" topLeftCell="A708" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C717" sqref="C717:C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12442,6 +12632,512 @@
         <v>1386</v>
       </c>
     </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>578</v>
+      </c>
+      <c r="B717" t="s">
+        <v>686</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>578</v>
+      </c>
+      <c r="B718" t="s">
+        <v>579</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>484</v>
+      </c>
+      <c r="B720" t="s">
+        <v>485</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>964</v>
+      </c>
+      <c r="B723" t="s">
+        <v>965</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>960</v>
+      </c>
+      <c r="B724" t="s">
+        <v>961</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>439</v>
+      </c>
+      <c r="B739" t="s">
+        <v>440</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B752" t="s">
+        <v>101</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>757</v>
+      </c>
+      <c r="B757" t="s">
+        <v>758</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>580</v>
+      </c>
+      <c r="B760" t="s">
+        <v>581</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>582</v>
+      </c>
+      <c r="B761" t="s">
+        <v>583</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1449</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
